--- a/database/inventory.xlsx
+++ b/database/inventory.xlsx
@@ -638,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,6 +916,31 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>2026-01-18 11:04:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BEE BEE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>092453652</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Phnom penh</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2026-01-19 22:12:54</t>
         </is>
       </c>
     </row>
@@ -930,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,6 +1483,33 @@
       <c r="G19" t="inlineStr">
         <is>
           <t>2026-01-18 11:04:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Kimchi Buldak</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2026-01-19 22:12:54</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,6 +2041,56 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>2026-01-18 11:04:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OC-20260119-00010</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BEE BEE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>092453652</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Phnom penh</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Completed</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2026-01-19 22:12:54</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2448,6 +2550,31 @@
         <v>1</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Kimchi Buldak</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/inventory.xlsx
+++ b/database/inventory.xlsx
@@ -508,7 +508,7 @@
         <v>1.5</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,32 +915,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2026-01-18 11:04:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BEE BEE</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>092453652</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Phnom penh</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2026-01-19 22:12:54</t>
+          <t>2026-01-20 08:05:53</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1442,22 @@
         <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yakult</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2026-01-18 11:04:26</t>
+          <t>2026-01-20 08:05:53</t>
         </is>
       </c>
     </row>
@@ -1491,25 +1466,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kimchi Buldak</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2026-01-19 22:12:54</t>
+          <t>2026-01-20 08:08:07</t>
         </is>
       </c>
     </row>
@@ -2000,7 +1975,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OC-20260118-00009</t>
+          <t>OC-20260120-00009</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2022,7 +1997,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2031,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -2040,7 +2015,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2026-01-18 11:04:26</t>
+          <t>2026-01-20 08:05:53</t>
         </is>
       </c>
     </row>
@@ -2050,29 +2025,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OC-20260119-00010</t>
+          <t>OC-20260120-00010</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BEE BEE</t>
+          <t>henlle</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>092453652</t>
+          <t>09293934</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Phnom penh</t>
+          <t>pp</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2081,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -2090,7 +2065,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2026-01-19 22:12:54</t>
+          <t>2026-01-20 08:08:07</t>
         </is>
       </c>
     </row>
@@ -2533,21 +2508,21 @@
         <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yakult</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18">
@@ -2558,21 +2533,21 @@
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Kimchi Buldak</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
